--- a/Olympic Athletes/hockey.xlsx
+++ b/Olympic Athletes/hockey.xlsx
@@ -15,10 +15,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="502">
   <si>
     <t>name</t>
   </si>
@@ -1462,7 +1463,79 @@
     <t>y2</t>
   </si>
   <si>
-    <t>Ball</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Flags/germany.png</t>
+  </si>
+  <si>
+    <t>Flags/netherlands.png</t>
+  </si>
+  <si>
+    <t>Flags/belgium.png</t>
+  </si>
+  <si>
+    <t>Flags/australia.png</t>
+  </si>
+  <si>
+    <t>Flags/spain.png</t>
+  </si>
+  <si>
+    <t>Flags/india.png</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>lightsteelblue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>radious</t>
+  </si>
+  <si>
+    <t>angke</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>D2/D</t>
+  </si>
+  <si>
+    <t>linex</t>
+  </si>
+  <si>
+    <t>liney</t>
+  </si>
+  <si>
+    <t>stride length</t>
+  </si>
+  <si>
+    <t>distance travelled in 11.08 strides</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1566,15 +1639,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1611,154 +1680,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7151,7 +7072,7 @@
     <dataField name="Average of weight(lbs)" fld="6" subtotal="average" baseField="8" baseItem="3"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="34">
+    <format dxfId="0">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7287,7 +7208,7 @@
     <dataField name="Average of height (m)" fld="2" subtotal="average" baseField="8" baseItem="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="35">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7296,7 +7217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="6">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7305,7 +7226,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="5">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7314,7 +7235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7323,7 +7244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="3">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7332,7 +7253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -7341,7 +7262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="1">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="1">
@@ -22510,18 +22431,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>470</v>
       </c>
@@ -22543,431 +22465,1212 @@
       <c r="G1" s="14" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1" t="s">
+        <v>484</v>
+      </c>
+      <c r="N1" t="s">
+        <v>500</v>
+      </c>
+      <c r="O1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="12">
-        <v>184.00000000000003</v>
+        <v>184</v>
       </c>
       <c r="C2" s="10">
-        <v>94.500000000000014</v>
+        <v>94.5</v>
       </c>
       <c r="D2">
-        <v>694.5</v>
+        <v>355.63208743820024</v>
       </c>
       <c r="E2">
-        <v>600</v>
+        <v>494.5407786721554</v>
       </c>
       <c r="F2">
-        <v>397.6570432757934</v>
+        <v>549.98501600092254</v>
       </c>
       <c r="G2">
-        <v>334.48268471025273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300.01499732548308</v>
+      </c>
+      <c r="H2">
+        <v>650</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="J2">
+        <v>547.89712343688052</v>
+      </c>
+      <c r="K2">
+        <v>305.08211670077372</v>
+      </c>
+      <c r="L2" t="s">
+        <v>478</v>
+      </c>
+      <c r="M2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2">
+        <f>1.35*B2</f>
+        <v>248.4</v>
+      </c>
+      <c r="O2">
+        <f>11.07*N2</f>
+        <v>2749.788</v>
+      </c>
+      <c r="P2">
+        <f>O2/10</f>
+        <v>274.97879999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>419</v>
       </c>
       <c r="B3" s="12">
-        <v>183.77777777777777</v>
+        <v>183.7777778</v>
       </c>
       <c r="C3" s="10">
-        <v>94.388888888888886</v>
+        <v>94.388888890000004</v>
       </c>
       <c r="D3">
-        <v>647.2155007892294</v>
+        <v>295.98773615795585</v>
       </c>
       <c r="E3">
-        <v>681.85930909323793</v>
+        <v>405.36968168235001</v>
       </c>
       <c r="F3">
-        <v>529.20650114989371</v>
+        <v>549.67366354771036</v>
       </c>
       <c r="G3">
-        <v>281.18413302617239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300.13537129105106</v>
+      </c>
+      <c r="H3">
+        <v>625</v>
+      </c>
+      <c r="I3">
+        <v>275</v>
+      </c>
+      <c r="J3">
+        <v>546.03410925962544</v>
+      </c>
+      <c r="K3">
+        <v>303.96941790747411</v>
+      </c>
+      <c r="L3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="0">1.35*B3</f>
+        <v>248.10000003000002</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="1">11.07*N3</f>
+        <v>2746.4670003321003</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="2">O3/10</f>
+        <v>274.64670003321004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>250</v>
       </c>
       <c r="B4" s="12">
-        <v>180.83333333333331</v>
+        <v>180.83333329999999</v>
       </c>
       <c r="C4" s="10">
-        <v>92.916666666666657</v>
+        <v>92.916666669999998</v>
       </c>
       <c r="D4">
-        <v>552.68102676778255</v>
+        <v>275.00004829526171</v>
       </c>
       <c r="E4">
-        <v>681.79954017137675</v>
+        <v>300.16297972765233</v>
       </c>
       <c r="F4">
-        <v>459.51257067242312</v>
+        <v>545.24637578501256</v>
       </c>
       <c r="G4">
-        <v>157.53644185002562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300.00281725278541</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>310</v>
+      </c>
+      <c r="J4">
+        <v>543.45725987381422</v>
+      </c>
+      <c r="K4">
+        <v>302.71406755720756</v>
+      </c>
+      <c r="L4" t="s">
+        <v>480</v>
+      </c>
+      <c r="M4" t="s">
+        <v>487</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>244.12499995499999</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2702.4637495018501</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>270.24637495018499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12">
-        <v>180.72222222222223</v>
+        <v>180.7222222</v>
       </c>
       <c r="C5" s="10">
-        <v>92.861111111111114</v>
+        <v>92.861111109999996</v>
       </c>
       <c r="D5">
-        <v>505.50007554957926</v>
+        <v>295.86301918463153</v>
       </c>
       <c r="E5">
-        <v>599.88050579607932</v>
+        <v>194.9314748269062</v>
       </c>
       <c r="F5">
-        <v>345.79969777538884</v>
+        <v>545.45355869260823</v>
       </c>
       <c r="G5">
-        <v>242.47982308772521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>298.12035272701723</v>
+      </c>
+      <c r="H5">
+        <v>575</v>
+      </c>
+      <c r="I5">
+        <v>280</v>
+      </c>
+      <c r="J5">
+        <v>542.86111236372551</v>
+      </c>
+      <c r="K5">
+        <v>300.00423088788011</v>
+      </c>
+      <c r="L5" t="s">
+        <v>481</v>
+      </c>
+      <c r="M5" t="s">
+        <v>485</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>243.97499997000003</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>2700.8032496679002</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>270.08032496679004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>306</v>
       </c>
       <c r="B6" s="12">
-        <v>178.66666666666669</v>
+        <v>178.66666670000001</v>
       </c>
       <c r="C6" s="10">
-        <v>91.833333333333343</v>
+        <v>91.833333330000002</v>
       </c>
       <c r="D6">
-        <v>552.88804714817593</v>
+        <v>355.40163344939822</v>
       </c>
       <c r="E6">
-        <v>518.0810528724428</v>
+        <v>105.68974361645846</v>
       </c>
       <c r="F6">
-        <v>444.59586580093259</v>
+        <v>544.34490074024779</v>
       </c>
       <c r="G6">
-        <v>344.38817731866538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>294.35327332641771</v>
+      </c>
+      <c r="H6">
+        <v>550</v>
+      </c>
+      <c r="I6">
+        <v>320</v>
+      </c>
+      <c r="J6">
+        <v>542.4529017787662</v>
+      </c>
+      <c r="K6">
+        <v>296.87978319055577</v>
+      </c>
+      <c r="L6" t="s">
+        <v>482</v>
+      </c>
+      <c r="M6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>241.20000004500002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>2670.0840004981505</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>267.00840004981507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="12">
-        <v>177.05555555555557</v>
+        <v>177.05555559999999</v>
       </c>
       <c r="C7" s="10">
-        <v>91.027777777777786</v>
+        <v>91.027777779999994</v>
       </c>
       <c r="D7">
+        <v>444.55505230497602</v>
+      </c>
+      <c r="E7">
+        <v>46.018971169904802</v>
+      </c>
+      <c r="F7">
+        <v>546.01252264114578</v>
+      </c>
+      <c r="G7">
+        <v>290.39552274265776</v>
+      </c>
+      <c r="H7">
+        <v>550</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>543.65098258785088</v>
+      </c>
+      <c r="K7">
+        <v>293.66038254582435</v>
+      </c>
+      <c r="L7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M7" t="s">
+        <v>489</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>239.02500006</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2646.0067506641999</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>264.60067506641997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>104.5*COS(N10)+(880/2)</f>
+        <v>393.1763071145017</v>
+      </c>
+      <c r="M10">
+        <f>104.5*SIN(N10)+150</f>
+        <v>243.42265134625831</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+      <c r="O10">
+        <f>94.5*COS(N10)+(880/2)</f>
+        <v>397.6570432757934</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P17" si="3">94.5*SIN(N10)+(500/2)</f>
+        <v>334.48268471025273</v>
+      </c>
+      <c r="U10">
+        <v>550.02963267905602</v>
+      </c>
+      <c r="V10">
+        <v>399.99999560952153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>C11/3*(22/7)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>94.5*COS(D11)+  600</f>
+        <v>694.5</v>
+      </c>
+      <c r="F11">
+        <f>94.5*SIN(D11)+  600</f>
+        <v>600</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L17" si="4">104.5*COS(N11)+(880/2)</f>
+        <v>538.64634254141686</v>
+      </c>
+      <c r="M11">
+        <f>104.5*SIN(N11)+150</f>
+        <v>184.48404128291023</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N17" si="5">N10+36</f>
+        <v>126</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O17" si="6">94.5*COS(N11)+(880/2)</f>
+        <v>529.20650114989371</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>281.18413302617239</v>
+      </c>
+      <c r="U11">
+        <v>511.76588067055616</v>
+      </c>
+      <c r="V11">
+        <v>392.40212183224935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D16" si="7">C12/3*(22/7)</f>
+        <v>1.0476190476190474</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E16" si="8">94.5*COS(D12)+  600</f>
+        <v>647.2155007892294</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F16" si="9">94.5*SIN(D12)+  600</f>
+        <v>681.85930909323793</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>461.57739296580127</v>
+      </c>
+      <c r="M12">
+        <f>104.5*SIN(N12)+150</f>
+        <v>47.751938342091833</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>459.51257067242312</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>157.53644185002562</v>
+      </c>
+      <c r="U12">
+        <v>479.32075906843647</v>
+      </c>
+      <c r="V12">
+        <v>370.74210133532927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="7"/>
+        <v>2.0952380952380949</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>552.68102676778255</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="9"/>
+        <v>681.79954017137675</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>335.83141182569449</v>
+      </c>
+      <c r="M13">
+        <f>104.5*SIN(N13)+150</f>
+        <v>141.68403717108237</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>198</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>345.79969777538884</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>242.47982308772521</v>
+      </c>
+      <c r="U13">
+        <v>457.63190405743853</v>
+      </c>
+      <c r="V13">
+        <v>338.31624788449091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="7"/>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="8"/>
+        <v>505.50007554957926</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>599.88050579607932</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>445.08220080632225</v>
+      </c>
+      <c r="M14">
+        <f>104.5*SIN(N14)+150</f>
+        <v>254.37634423069346</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>444.59586580093259</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>344.38817731866538</v>
+      </c>
+      <c r="U14">
+        <v>450.00001756191335</v>
+      </c>
+      <c r="V14">
+        <v>300.05926535550992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="7"/>
+        <v>4.1904761904761898</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>552.88804714817593</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>518.0810528724428</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>542.86791384109677</v>
+      </c>
+      <c r="M15">
+        <f>104.5*SIN(N15)+150</f>
+        <v>131.60319859375841</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>533.02409433477169</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>233.36365805847052</v>
+      </c>
+      <c r="U15">
+        <v>457.5865524307751</v>
+      </c>
+      <c r="V15">
+        <v>261.7932635734204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>5.2380952380952381</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
         <v>647.42237001534272</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>518.26035954245992</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>408.59108359491631</v>
+      </c>
+      <c r="M16">
+        <f>104.5*SIN(N16)+150</f>
+        <v>50.33190093987713</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>411.59672152841716</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>159.86951807481711</v>
+      </c>
+      <c r="U16">
+        <v>479.23695761796301</v>
+      </c>
+      <c r="V16">
+        <v>229.34172495143946</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>345.1704878196897</v>
+      </c>
+      <c r="M17">
+        <f>104.5*SIN(N17)+150</f>
+        <v>193.90459679400757</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>354.24508228670504</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>289.70319997161448</v>
+      </c>
+      <c r="U17">
+        <v>511.65638265635494</v>
+      </c>
+      <c r="V17">
+        <v>207.64326224360173</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>491</v>
+      </c>
+      <c r="F18">
+        <v>550</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>180/7</f>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="E19" t="s">
+        <v>492</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>493</v>
+      </c>
+      <c r="F20">
+        <v>25.713999999999999</v>
+      </c>
+      <c r="G20">
+        <f>2*F20</f>
+        <v>51.427999999999997</v>
+      </c>
+      <c r="L20">
+        <f>3*F20</f>
+        <v>77.141999999999996</v>
+      </c>
+      <c r="M20">
+        <f>4*F20</f>
+        <v>102.85599999999999</v>
+      </c>
+      <c r="N20">
+        <f>5*F20</f>
+        <v>128.57</v>
+      </c>
+      <c r="O20">
+        <f>6*F20</f>
+        <v>154.28399999999999</v>
+      </c>
+      <c r="P20">
+        <f>7*F20</f>
+        <v>179.99799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>550+100*COS(F20)</f>
+        <v>633.5772150614473</v>
+      </c>
+      <c r="G22">
+        <f>300+100*COS(F20)</f>
+        <v>383.57721506144736</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" ref="F23:F28" si="10">550+100*COS(F21)</f>
+        <v>650</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G28" si="11">300+100*COS(F21)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>601.95253555926161</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>351.95253555926161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>454.75686446775927</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="11"/>
+        <v>204.75686446775927</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>583.11691705061617</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="11"/>
+        <v>333.11691705061611</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>478.49287506844996</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="11"/>
+        <v>228.49287506844996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>584.42875243643891</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>334.42875243643891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>511.76588067055616</v>
+      </c>
+      <c r="B2">
+        <v>392.40212183224935</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>94.5</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(POWER((C2-A2),2)+POWER((D2-B2),2))</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G2">
+        <f>E2/F2</f>
+        <v>0.94499999999999984</v>
+      </c>
+      <c r="H2">
+        <f>(1-G2)*A2+G2*C2</f>
+        <v>547.89712343688052</v>
+      </c>
+      <c r="I2">
+        <f>(1-G2)*B2+G2*D2</f>
+        <v>305.08211670077372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>479.32075906843647</v>
+      </c>
+      <c r="B3">
+        <v>370.74210133532927</v>
+      </c>
+      <c r="C3">
+        <v>550</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>94.388888890000004</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">SQRT(POWER((C3-A3),2)+POWER((D3-B3),2))</f>
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">E3/F3</f>
+        <v>0.9438888889</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">(1-G3)*A3+G3*C3</f>
+        <v>546.03410925962544</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="3">(1-G3)*B3+G3*D3</f>
+        <v>303.96941790747411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>457.63190405743853</v>
+      </c>
+      <c r="B4">
+        <v>338.31624788449091</v>
+      </c>
+      <c r="C4">
+        <v>550</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>92.916666669999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>99.999999999999957</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.92916666670000037</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>543.45725987381422</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>302.71406755720756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>450.00001756191335</v>
+      </c>
+      <c r="B5">
+        <v>300.05926535550992</v>
+      </c>
+      <c r="C5">
+        <v>550</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>92.861111109999996</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.92861111109999983</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>542.86111236372551</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>300.00423088788011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>457.5865524307751</v>
+      </c>
+      <c r="B6">
+        <v>261.7932635734204</v>
+      </c>
+      <c r="C6">
+        <v>550</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>91.833333330000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.91833333329999989</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>542.4529017787662</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>296.87978319055577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>479.23695761796301</v>
+      </c>
+      <c r="B7">
+        <v>229.34172495143946</v>
+      </c>
+      <c r="C7">
+        <v>550</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
       <c r="E7">
-        <v>518.26035954245992</v>
+        <v>91.027777779999994</v>
       </c>
       <c r="F7">
-        <v>533.02409433477169</v>
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
       </c>
       <c r="G7">
-        <v>233.36365805847052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="16">
-        <v>100</v>
-      </c>
-      <c r="C8" s="14">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>850</v>
-      </c>
-      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.91027777780000008</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>543.65098258785088</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>293.66038254582435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>355.63208743820024</v>
+      </c>
+      <c r="B13">
+        <v>494.5407786721554</v>
+      </c>
+      <c r="C13">
+        <v>550</v>
+      </c>
+      <c r="D13">
         <v>300</v>
       </c>
-      <c r="F8">
-        <v>397.65699999999998</v>
-      </c>
-      <c r="G8">
-        <v>524.48270000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11">
-        <f>104.5*COS(J11)+(880/2)</f>
-        <v>393.1763071145017</v>
-      </c>
-      <c r="I11">
-        <f>104.5*SIN(J11)+(500/2)</f>
-        <v>343.42265134625831</v>
-      </c>
-      <c r="J11">
-        <v>90</v>
-      </c>
-      <c r="K11">
-        <f>94.5*COS(J11)+(880/2)</f>
-        <v>397.6570432757934</v>
-      </c>
-      <c r="L11">
-        <f>94.5*SIN(J11)+(500/2)</f>
-        <v>334.48268471025273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>C12/3*(22/7)</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>94.5*COS(D12)+  600</f>
-        <v>694.5</v>
-      </c>
-      <c r="F12">
-        <f>94.5*SIN(D12)+  600</f>
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H18" si="0">104.5*COS(J12)+(880/2)</f>
-        <v>538.64634254141686</v>
-      </c>
-      <c r="I12">
-        <f>104.5*SIN(J12)+(500/2)</f>
-        <v>284.4840412829102</v>
-      </c>
-      <c r="J12">
-        <f>J11+36</f>
-        <v>126</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K18" si="1">94.5*COS(J12)+(880/2)</f>
-        <v>529.20650114989371</v>
-      </c>
-      <c r="L12">
-        <f>94.5*SIN(J12)+(500/2)</f>
-        <v>281.18413302617239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D17" si="2">C13/3*(22/7)</f>
-        <v>1.0476190476190474</v>
-      </c>
       <c r="E13">
-        <f t="shared" ref="E13:E17" si="3">94.5*COS(D13)+  600</f>
-        <v>647.2155007892294</v>
+        <v>274.97879999999998</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F17" si="4">94.5*SIN(D13)+  600</f>
-        <v>681.85930909323793</v>
+        <f>SQRT(POWER((C13-A13),2)+POWER((D13-B13),2))</f>
+        <v>275</v>
+      </c>
+      <c r="G13">
+        <f>E13/F13</f>
+        <v>0.99992290909090897</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>461.57739296580127</v>
+        <f>(1-G13)*A13+G13*C13</f>
+        <v>549.98501600092254</v>
       </c>
       <c r="I13">
-        <f>104.5*SIN(J13)+(500/2)</f>
-        <v>147.75193834209182</v>
-      </c>
-      <c r="J13">
-        <f>J12+36</f>
-        <v>162</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>459.51257067242312</v>
-      </c>
-      <c r="L13">
-        <f>94.5*SIN(J13)+(500/2)</f>
-        <v>157.53644185002562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f>(1-G13)*B13+G13*D13</f>
+        <v>300.01499732548308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>295.98773615795585</v>
+      </c>
+      <c r="B14">
+        <v>405.36968168235001</v>
+      </c>
       <c r="C14">
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>2.0952380952380949</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>552.68102676778255</v>
+        <v>274.64670003321004</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
-        <v>681.79954017137675</v>
+        <f t="shared" ref="F14:F18" si="4">SQRT(POWER((C14-A14),2)+POWER((D14-B14),2))</f>
+        <v>275</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G18" si="5">E14/F14</f>
+        <v>0.99871527284803652</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>335.83141182569449</v>
+        <f t="shared" ref="H14:H18" si="6">(1-G14)*A14+G14*C14</f>
+        <v>549.67366354771036</v>
       </c>
       <c r="I14">
-        <f>104.5*SIN(J14)+(500/2)</f>
-        <v>241.68403717108237</v>
-      </c>
-      <c r="J14">
-        <f>J13+36</f>
-        <v>198</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>345.79969777538884</v>
-      </c>
-      <c r="L14">
-        <f>94.5*SIN(J14)+(500/2)</f>
-        <v>242.47982308772521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I14:I18" si="7">(1-G14)*B14+G14*D14</f>
+        <v>300.13537129105106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>275.00004829526171</v>
+      </c>
+      <c r="B15">
+        <v>300.16297972765233</v>
+      </c>
       <c r="C15">
-        <v>3</v>
+        <v>550</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>3.1428571428571428</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>505.50007554957926</v>
+        <v>270.24637495018499</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>599.88050579607932</v>
+        <v>275</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.98271409072794536</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>445.08220080632225</v>
+        <f t="shared" si="6"/>
+        <v>545.24637578501256</v>
       </c>
       <c r="I15">
-        <f>104.5*SIN(J15)+(500/2)</f>
-        <v>354.37634423069346</v>
-      </c>
-      <c r="J15">
-        <f>J14+36</f>
-        <v>234</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>444.59586580093259</v>
-      </c>
-      <c r="L15">
-        <f>94.5*SIN(J15)+(500/2)</f>
-        <v>344.38817731866538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>300.00281725278541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>295.86301918463153</v>
+      </c>
+      <c r="B16">
+        <v>194.9314748269062</v>
+      </c>
       <c r="C16">
-        <v>4</v>
+        <v>550</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>4.1904761904761898</v>
+        <v>300</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>552.88804714817593</v>
+        <v>270.08032496679004</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>518.0810528724428</v>
+        <v>275</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0.98211027260650929</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>542.86791384109677</v>
+        <f t="shared" si="6"/>
+        <v>545.45355869260823</v>
       </c>
       <c r="I16">
-        <f>104.5*SIN(J16)+(500/2)</f>
-        <v>231.60319859375841</v>
-      </c>
-      <c r="J16">
-        <f>J15+36</f>
-        <v>270</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>533.02409433477169</v>
-      </c>
-      <c r="L16">
-        <f>94.5*SIN(J16)+(500/2)</f>
-        <v>233.36365805847052</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>298.12035272701723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>355.40163344939822</v>
+      </c>
+      <c r="B17">
+        <v>105.68974361645846</v>
+      </c>
       <c r="C17">
-        <v>5</v>
+        <v>550</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>5.2380952380952381</v>
+        <v>300</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>647.42237001534272</v>
+        <v>267.00840004981507</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>518.26035954245992</v>
+        <v>275</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>0.9709396365447821</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>408.59108359491631</v>
+        <f t="shared" si="6"/>
+        <v>544.34490074024779</v>
       </c>
       <c r="I17">
-        <f>104.5*SIN(J17)+(500/2)</f>
-        <v>150.33190093987713</v>
-      </c>
-      <c r="J17">
-        <f>J16+36</f>
-        <v>306</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>411.59672152841716</v>
-      </c>
-      <c r="L17">
-        <f>94.5*SIN(J17)+(500/2)</f>
-        <v>159.86951807481711</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>294.35327332641771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>444.55505230497602</v>
+      </c>
+      <c r="B18">
+        <v>46.018971169904802</v>
+      </c>
+      <c r="C18">
+        <v>550</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <v>264.60067506641997</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.96218427296879983</v>
+      </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>345.1704878196897</v>
+        <f t="shared" si="6"/>
+        <v>546.01252264114578</v>
       </c>
       <c r="I18">
-        <f>104.5*SIN(J18)+(500/2)</f>
-        <v>293.90459679400755</v>
-      </c>
-      <c r="J18">
-        <f>J17+36</f>
-        <v>342</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>354.24508228670504</v>
-      </c>
-      <c r="L18">
-        <f>94.5*SIN(J18)+(500/2)</f>
-        <v>289.70319997161448</v>
+        <f t="shared" si="7"/>
+        <v>290.39552274265776</v>
       </c>
     </row>
   </sheetData>

--- a/Olympic Athletes/hockey.xlsx
+++ b/Olympic Athletes/hockey.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="timecalc" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="511">
   <si>
     <t>name</t>
   </si>
@@ -1536,6 +1537,33 @@
   </si>
   <si>
     <t>distance travelled in 11.08 strides</t>
+  </si>
+  <si>
+    <t>distance travelled in 1 stride (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumption </t>
+  </si>
+  <si>
+    <t>no of strides per sec</t>
+  </si>
+  <si>
+    <t>Distance covered in 1 sec(m)</t>
+  </si>
+  <si>
+    <t>4.968 m</t>
+  </si>
+  <si>
+    <t>1 sec</t>
+  </si>
+  <si>
+    <t>1 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 m is covered in(s) </t>
+  </si>
+  <si>
+    <t>27.5 m is covered in(s)</t>
   </si>
 </sst>
 </file>
@@ -22434,13 +22462,14 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J3" sqref="J3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -22519,10 +22548,10 @@
         <v>300</v>
       </c>
       <c r="J2">
-        <v>547.89712343688052</v>
+        <v>550</v>
       </c>
       <c r="K2">
-        <v>305.08211670077372</v>
+        <v>300</v>
       </c>
       <c r="L2" t="s">
         <v>478</v>
@@ -22569,13 +22598,13 @@
         <v>625</v>
       </c>
       <c r="I3">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="J3">
-        <v>546.03410925962544</v>
+        <v>550</v>
       </c>
       <c r="K3">
-        <v>303.96941790747411</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
         <v>479</v>
@@ -22625,10 +22654,10 @@
         <v>310</v>
       </c>
       <c r="J4">
-        <v>543.45725987381422</v>
+        <v>550</v>
       </c>
       <c r="K4">
-        <v>302.71406755720756</v>
+        <v>300</v>
       </c>
       <c r="L4" t="s">
         <v>480</v>
@@ -22678,10 +22707,10 @@
         <v>280</v>
       </c>
       <c r="J5">
-        <v>542.86111236372551</v>
+        <v>550</v>
       </c>
       <c r="K5">
-        <v>300.00423088788011</v>
+        <v>300</v>
       </c>
       <c r="L5" t="s">
         <v>481</v>
@@ -22728,13 +22757,13 @@
         <v>550</v>
       </c>
       <c r="I6">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J6">
-        <v>542.4529017787662</v>
+        <v>550</v>
       </c>
       <c r="K6">
-        <v>296.87978319055577</v>
+        <v>300</v>
       </c>
       <c r="L6" t="s">
         <v>482</v>
@@ -22784,10 +22813,10 @@
         <v>300</v>
       </c>
       <c r="J7">
-        <v>543.65098258785088</v>
+        <v>550</v>
       </c>
       <c r="K7">
-        <v>293.66038254582435</v>
+        <v>300</v>
       </c>
       <c r="L7" t="s">
         <v>483</v>
@@ -22836,6 +22865,12 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>499</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -22879,6 +22914,12 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>547.89712343688052</v>
+      </c>
+      <c r="B12">
+        <v>305.08211670077372</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -22922,6 +22963,12 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>546.03410925962544</v>
+      </c>
+      <c r="B13">
+        <v>303.96941790747411</v>
+      </c>
       <c r="C13">
         <v>2</v>
       </c>
@@ -22965,6 +23012,12 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>543.45725987381422</v>
+      </c>
+      <c r="B14">
+        <v>302.71406755720756</v>
+      </c>
       <c r="C14">
         <v>3</v>
       </c>
@@ -23008,6 +23061,12 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>542.86111236372551</v>
+      </c>
+      <c r="B15">
+        <v>300.00423088788011</v>
+      </c>
       <c r="C15">
         <v>4</v>
       </c>
@@ -23051,6 +23110,12 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>542.4529017787662</v>
+      </c>
+      <c r="B16">
+        <v>296.87978319055577</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
@@ -23093,7 +23158,13 @@
         <v>229.34172495143946</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>543.65098258785088</v>
+      </c>
+      <c r="B17">
+        <v>293.66038254582435</v>
+      </c>
       <c r="L17">
         <f t="shared" si="4"/>
         <v>345.1704878196897</v>
@@ -23121,7 +23192,7 @@
         <v>207.64326224360173</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>491</v>
       </c>
@@ -23132,7 +23203,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>180/7</f>
         <v>25.714285714285715</v>
@@ -23144,7 +23215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>493</v>
       </c>
@@ -23176,7 +23247,7 @@
         <v>179.99799999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F22">
         <f>550+100*COS(F20)</f>
         <v>633.5772150614473</v>
@@ -23186,7 +23257,7 @@
         <v>383.57721506144736</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F23">
         <f t="shared" ref="F23:F28" si="10">550+100*COS(F21)</f>
         <v>650</v>
@@ -23196,7 +23267,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F24">
         <f t="shared" si="10"/>
         <v>601.95253555926161</v>
@@ -23206,7 +23277,7 @@
         <v>351.95253555926161</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F25">
         <f t="shared" si="10"/>
         <v>454.75686446775927</v>
@@ -23216,7 +23287,7 @@
         <v>204.75686446775927</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F26">
         <f t="shared" si="10"/>
         <v>583.11691705061617</v>
@@ -23226,7 +23297,7 @@
         <v>333.11691705061611</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F27">
         <f t="shared" si="10"/>
         <v>478.49287506844996</v>
@@ -23236,7 +23307,7 @@
         <v>228.49287506844996</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F28">
         <f t="shared" si="10"/>
         <v>584.42875243643891</v>
@@ -23252,6 +23323,243 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="12">
+        <v>184</v>
+      </c>
+      <c r="D2">
+        <v>248.4</v>
+      </c>
+      <c r="E2">
+        <f>D2/100</f>
+        <v>2.484</v>
+      </c>
+      <c r="F2">
+        <f>E2*2</f>
+        <v>4.968</v>
+      </c>
+      <c r="G2">
+        <f>1/F2</f>
+        <v>0.20128824476650564</v>
+      </c>
+      <c r="H2">
+        <f>G2*27.5</f>
+        <v>5.5354267310789051</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="12">
+        <v>183.7777778</v>
+      </c>
+      <c r="D3">
+        <v>248.10000003000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">D3/100</f>
+        <v>2.4810000003000003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="1">E3*2</f>
+        <v>4.9620000006000007</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">1/F3</f>
+        <v>0.20153164044318439</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="3">G3*27.5</f>
+        <v>5.5421201121875709</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="12">
+        <v>180.83333329999999</v>
+      </c>
+      <c r="D4">
+        <v>244.12499995499999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.4412499995500001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4.8824999991000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.20481310807666805</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>5.6323604721083713</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>180.7222222</v>
+      </c>
+      <c r="D5">
+        <v>243.97499997000003</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.4397499997000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.8794999994000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.20493903066358507</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>5.6358233432485898</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="12">
+        <v>178.66666670000001</v>
+      </c>
+      <c r="D6">
+        <v>241.20000004500002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.4120000004500004</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.8240000009000008</v>
+      </c>
+      <c r="G6">
+        <f>1/F6</f>
+        <v>0.20729684904921905</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>5.7006633488535243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="12">
+        <v>177.05555559999999</v>
+      </c>
+      <c r="D7">
+        <v>239.02500006</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.3902500006</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.7805000012000001</v>
+      </c>
+      <c r="G7">
+        <f>1/F7</f>
+        <v>0.20918313978641986</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5.752536344126546</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15">
+        <f>1/4.968</f>
+        <v>0.20128824476650564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>

--- a/Olympic Athletes/hockey.xlsx
+++ b/Olympic Athletes/hockey.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="timecalc" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="514">
   <si>
     <t>name</t>
   </si>
@@ -1564,6 +1566,15 @@
   </si>
   <si>
     <t>27.5 m is covered in(s)</t>
+  </si>
+  <si>
+    <t>Result is not clear ?</t>
+  </si>
+  <si>
+    <t>Weight into consideration?</t>
+  </si>
+  <si>
+    <t>Physical aspects.</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1667,6 +1678,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6984,7 +6996,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -7120,7 +7132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -22461,8 +22473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22843,7 +22855,7 @@
         <v>393.1763071145017</v>
       </c>
       <c r="M10">
-        <f>104.5*SIN(N10)+150</f>
+        <f t="shared" ref="M10:M17" si="3">104.5*SIN(N10)+150</f>
         <v>243.42265134625831</v>
       </c>
       <c r="N10">
@@ -22854,7 +22866,7 @@
         <v>397.6570432757934</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P17" si="3">94.5*SIN(N10)+(500/2)</f>
+        <f t="shared" ref="P10:P17" si="4">94.5*SIN(N10)+(500/2)</f>
         <v>334.48268471025273</v>
       </c>
       <c r="U10">
@@ -22887,23 +22899,23 @@
         <v>600</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L17" si="4">104.5*COS(N11)+(880/2)</f>
+        <f t="shared" ref="L11:L17" si="5">104.5*COS(N11)+(880/2)</f>
         <v>538.64634254141686</v>
       </c>
       <c r="M11">
-        <f>104.5*SIN(N11)+150</f>
+        <f t="shared" si="3"/>
         <v>184.48404128291023</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N17" si="5">N10+36</f>
+        <f t="shared" ref="N11:N17" si="6">N10+36</f>
         <v>126</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O17" si="6">94.5*COS(N11)+(880/2)</f>
+        <f t="shared" ref="O11:O17" si="7">94.5*COS(N11)+(880/2)</f>
         <v>529.20650114989371</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>281.18413302617239</v>
       </c>
       <c r="U11">
@@ -22924,35 +22936,35 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D16" si="7">C12/3*(22/7)</f>
+        <f t="shared" ref="D12:D16" si="8">C12/3*(22/7)</f>
         <v>1.0476190476190474</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E16" si="8">94.5*COS(D12)+  600</f>
+        <f t="shared" ref="E12:E16" si="9">94.5*COS(D12)+  600</f>
         <v>647.2155007892294</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F16" si="9">94.5*SIN(D12)+  600</f>
+        <f t="shared" ref="F12:F16" si="10">94.5*SIN(D12)+  600</f>
         <v>681.85930909323793</v>
       </c>
       <c r="L12">
+        <f t="shared" si="5"/>
+        <v>461.57739296580127</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>47.751938342091833</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>459.51257067242312</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>461.57739296580127</v>
-      </c>
-      <c r="M12">
-        <f>104.5*SIN(N12)+150</f>
-        <v>47.751938342091833</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>459.51257067242312</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
         <v>157.53644185002562</v>
       </c>
       <c r="U12">
@@ -22973,35 +22985,35 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <f t="shared" si="8"/>
+        <v>2.0952380952380949</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="9"/>
+        <v>552.68102676778255</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="10"/>
+        <v>681.79954017137675</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>335.83141182569449</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>141.68403717108237</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="7"/>
-        <v>2.0952380952380949</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="8"/>
-        <v>552.68102676778255</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="9"/>
-        <v>681.79954017137675</v>
-      </c>
-      <c r="L13">
+        <v>345.79969777538884</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>335.83141182569449</v>
-      </c>
-      <c r="M13">
-        <f>104.5*SIN(N13)+150</f>
-        <v>141.68403717108237</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>198</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>345.79969777538884</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
         <v>242.47982308772521</v>
       </c>
       <c r="U13">
@@ -23022,35 +23034,35 @@
         <v>3</v>
       </c>
       <c r="D14">
+        <f t="shared" si="8"/>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>505.50007554957926</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="10"/>
+        <v>599.88050579607932</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>445.08220080632225</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>254.37634423069346</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="7"/>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="8"/>
-        <v>505.50007554957926</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="9"/>
-        <v>599.88050579607932</v>
-      </c>
-      <c r="L14">
+        <v>444.59586580093259</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>445.08220080632225</v>
-      </c>
-      <c r="M14">
-        <f>104.5*SIN(N14)+150</f>
-        <v>254.37634423069346</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>234</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>444.59586580093259</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
         <v>344.38817731866538</v>
       </c>
       <c r="U14">
@@ -23071,35 +23083,35 @@
         <v>4</v>
       </c>
       <c r="D15">
+        <f t="shared" si="8"/>
+        <v>4.1904761904761898</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="9"/>
+        <v>552.88804714817593</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="10"/>
+        <v>518.0810528724428</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>542.86791384109677</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>131.60319859375841</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="7"/>
-        <v>4.1904761904761898</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="8"/>
-        <v>552.88804714817593</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="9"/>
-        <v>518.0810528724428</v>
-      </c>
-      <c r="L15">
+        <v>533.02409433477169</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>542.86791384109677</v>
-      </c>
-      <c r="M15">
-        <f>104.5*SIN(N15)+150</f>
-        <v>131.60319859375841</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>533.02409433477169</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
         <v>233.36365805847052</v>
       </c>
       <c r="U15">
@@ -23120,35 +23132,35 @@
         <v>5</v>
       </c>
       <c r="D16">
+        <f t="shared" si="8"/>
+        <v>5.2380952380952381</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>647.42237001534272</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>518.26035954245992</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>408.59108359491631</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>50.33190093987713</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>306</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="7"/>
-        <v>5.2380952380952381</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="8"/>
-        <v>647.42237001534272</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="9"/>
-        <v>518.26035954245992</v>
-      </c>
-      <c r="L16">
+        <v>411.59672152841716</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>408.59108359491631</v>
-      </c>
-      <c r="M16">
-        <f>104.5*SIN(N16)+150</f>
-        <v>50.33190093987713</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>306</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>411.59672152841716</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
         <v>159.86951807481711</v>
       </c>
       <c r="U16">
@@ -23166,23 +23178,23 @@
         <v>293.66038254582435</v>
       </c>
       <c r="L17">
+        <f t="shared" si="5"/>
+        <v>345.1704878196897</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>193.90459679400757</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>354.24508228670504</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="4"/>
-        <v>345.1704878196897</v>
-      </c>
-      <c r="M17">
-        <f>104.5*SIN(N17)+150</f>
-        <v>193.90459679400757</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>342</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>354.24508228670504</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
         <v>289.70319997161448</v>
       </c>
       <c r="U17">
@@ -23259,61 +23271,61 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F23">
-        <f t="shared" ref="F23:F28" si="10">550+100*COS(F21)</f>
+        <f t="shared" ref="F23:F28" si="11">550+100*COS(F21)</f>
         <v>650</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G28" si="11">300+100*COS(F21)</f>
+        <f t="shared" ref="G23:G28" si="12">300+100*COS(F21)</f>
         <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>601.95253555926161</v>
       </c>
       <c r="G24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>351.95253555926161</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>454.75686446775927</v>
       </c>
       <c r="G25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>204.75686446775927</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>583.11691705061617</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>333.11691705061611</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478.49287506844996</v>
       </c>
       <c r="G27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>228.49287506844996</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>584.42875243643891</v>
       </c>
       <c r="G28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>334.42875243643891</v>
       </c>
     </row>
@@ -23408,7 +23420,7 @@
         <v>4.9620000006000007</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">1/F3</f>
+        <f t="shared" ref="G3:G5" si="2">1/F3</f>
         <v>0.20153164044318439</v>
       </c>
       <c r="H3">
@@ -23560,6 +23572,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
